--- a/FSDAtestHPC/test-results/regression_test.xlsx
+++ b/FSDAtestHPC/test-results/regression_test.xlsx
@@ -453,7 +453,7 @@
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
     <col min="2" max="2" width="15" customWidth="true"/>
     <col min="3" max="3" width="9.5703125" customWidth="true"/>
-    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.5703125" customWidth="true"/>
     <col min="5" max="5" width="12.28515625" customWidth="true"/>
     <col min="6" max="6" width="73.85546875" customWidth="true"/>
     <col min="7" max="7" width="11.5703125" customWidth="true"/>
@@ -493,7 +493,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>23.131418</v>
+        <v>16.515993999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>5.8544369999999999</v>
+        <v>4.7840559999999996</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.55036</v>
+        <v>1.20977</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>6.8494989999999998</v>
+        <v>5.5301809999999998</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>3.4414099999999999</v>
+        <v>2.820519</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>0.49941000000000002</v>
+        <v>0.41667799999999999</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>1.8305130000000001</v>
+        <v>1.555901</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>4.0194650000000003</v>
+        <v>2.9160680000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>1.7468699999999999</v>
+        <v>1.320055</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>3.982434</v>
+        <v>3.0777589999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>1.6879059999999999</v>
+        <v>1.313674</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>1.9892289999999999</v>
+        <v>1.5134110000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>3.1048300000000002</v>
+        <v>2.3090229999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>0.85741100000000003</v>
+        <v>0.71112699999999995</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>1.837955</v>
+        <v>1.4223079999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>1.1858599999999999</v>
+        <v>0.98956900000000003</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>1.163724</v>
+        <v>0.95872599999999997</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="D19">
-        <v>1.739752</v>
+        <v>1.293633</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>0.87777099999999997</v>
+        <v>0.68235100000000004</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1.014049</v>
+        <v>0.76696699999999995</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>0.80327000000000004</v>
+        <v>0.59787599999999996</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>1.112706</v>
+        <v>0.80245200000000005</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="D24">
-        <v>0.61730499999999999</v>
+        <v>0.51378500000000005</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <v>0.49890899999999999</v>
+        <v>0.39348</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>26</v>
       </c>
       <c r="D26">
-        <v>2.2463570000000002</v>
+        <v>1.631929</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <v>1.4631559999999999</v>
+        <v>1.231687</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="D28">
-        <v>5.7650810000000003</v>
+        <v>4.609445</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>0.73856100000000002</v>
+        <v>0.56289500000000003</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>0.42330800000000002</v>
+        <v>0.34779900000000002</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <v>118.456575</v>
+        <v>87.986953</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.38284299999999999</v>
+        <v>0.33019199999999999</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="D33">
-        <v>3.4786109999999999</v>
+        <v>2.6820970000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>26</v>
       </c>
       <c r="D34">
-        <v>3.9914399999999999</v>
+        <v>2.925764</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="D35">
-        <v>3.3706830000000001</v>
+        <v>2.8190490000000001</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>1.329761</v>
+        <v>1.006421</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="D37">
-        <v>1.173773</v>
+        <v>0.88869100000000001</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D38">
-        <v>1.223751</v>
+        <v>0.96915899999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="D39">
-        <v>1.3251900000000001</v>
+        <v>0.98880599999999996</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="D40">
-        <v>1.344457</v>
+        <v>1.013916</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="D41">
-        <v>1.4335450000000001</v>
+        <v>1.08022</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>30</v>
       </c>
       <c r="D42">
-        <v>1.315067</v>
+        <v>0.98875999999999997</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="D43">
-        <v>1.3195429999999999</v>
+        <v>1.01776</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>32</v>
       </c>
       <c r="D44">
-        <v>2.1500759999999999</v>
+        <v>1.587388</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>33</v>
       </c>
       <c r="D45">
-        <v>1.619035</v>
+        <v>1.2052959999999999</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="D46">
-        <v>0.60074499999999997</v>
+        <v>0.461314</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>1.566074</v>
+        <v>1.3171200000000001</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>25</v>
       </c>
       <c r="D48">
-        <v>0.92146399999999995</v>
+        <v>0.76331800000000005</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="D49">
-        <v>6.0464700000000002</v>
+        <v>4.501525</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>9.6141199999999998</v>
+        <v>7.4574740000000004</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>24</v>
       </c>
       <c r="D51">
-        <v>2.0080179999999999</v>
+        <v>1.5116419999999999</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>25</v>
       </c>
       <c r="D52">
-        <v>1.461416</v>
+        <v>1.15913</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>26</v>
       </c>
       <c r="D53">
-        <v>0.78965600000000002</v>
+        <v>0.62134299999999998</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>27</v>
       </c>
       <c r="D54">
-        <v>1.049531</v>
+        <v>0.77056800000000003</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="D55">
-        <v>1.5769169999999999</v>
+        <v>1.1807890000000001</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>29</v>
       </c>
       <c r="D56">
-        <v>0.47181299999999998</v>
+        <v>0.36335800000000001</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="D57">
-        <v>1.0114179999999999</v>
+        <v>0.79494799999999999</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="D58">
-        <v>3.5455260000000002</v>
+        <v>2.7976100000000002</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>32</v>
       </c>
       <c r="D59">
-        <v>1.0860669999999999</v>
+        <v>0.93005599999999999</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="D60">
-        <v>0.67462100000000003</v>
+        <v>0.52631799999999995</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="D61">
-        <v>0.66840100000000002</v>
+        <v>0.50559699999999996</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="D62">
-        <v>0.31886500000000001</v>
+        <v>0.26566800000000002</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="D63">
-        <v>0.84774000000000005</v>
+        <v>0.68706299999999998</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>28</v>
       </c>
       <c r="D64">
-        <v>11.501376</v>
+        <v>8.5267739999999996</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>24</v>
       </c>
       <c r="D65">
-        <v>0.59988200000000003</v>
+        <v>0.445932</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="D66">
-        <v>0.93950699999999998</v>
+        <v>0.74030200000000002</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="D67">
-        <v>0.923377</v>
+        <v>0.69854899999999998</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>27</v>
       </c>
       <c r="D68">
-        <v>11.824541</v>
+        <v>8.5667019999999994</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>24</v>
       </c>
       <c r="D69">
-        <v>0.23641000000000001</v>
+        <v>0.18506800000000001</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>25</v>
       </c>
       <c r="D70">
-        <v>0.66631200000000002</v>
+        <v>0.49832300000000002</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>26</v>
       </c>
       <c r="D71">
-        <v>0.50888</v>
+        <v>0.38313900000000001</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>24</v>
       </c>
       <c r="D72">
-        <v>0.48585899999999999</v>
+        <v>0.40768799999999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="D73">
-        <v>0.69538599999999995</v>
+        <v>0.51661800000000002</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="D74">
-        <v>1.6961759999999999</v>
+        <v>1.3558300000000001</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>27</v>
       </c>
       <c r="D75">
-        <v>2.3456779999999999</v>
+        <v>1.788273</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="D76">
-        <v>2.30321</v>
+        <v>1.8511789999999999</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="D77">
-        <v>2.0177960000000001</v>
+        <v>1.5028330000000001</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="D78">
-        <v>1.4846490000000001</v>
+        <v>1.0584420000000001</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="D79">
-        <v>0.68422099999999997</v>
+        <v>0.45245800000000003</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="D80">
-        <v>0.456291</v>
+        <v>0.31147900000000001</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="D81">
-        <v>0.71562599999999998</v>
+        <v>0.59196400000000005</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>24</v>
       </c>
       <c r="D82">
-        <v>0.33549000000000001</v>
+        <v>0.27181699999999998</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="D83">
-        <v>0.31073600000000001</v>
+        <v>0.25759700000000002</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="D84">
-        <v>0.33050299999999999</v>
+        <v>0.27314899999999998</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="D85">
-        <v>0.31921699999999997</v>
+        <v>0.27218799999999999</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="D86">
-        <v>0.89587099999999997</v>
+        <v>0.65476500000000004</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="D87">
-        <v>0.64411600000000002</v>
+        <v>0.48302400000000001</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="D88">
-        <v>0.66084200000000004</v>
+        <v>0.49018</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="D89">
-        <v>1.1632750000000001</v>
+        <v>0.87051500000000004</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>25</v>
       </c>
       <c r="D90">
-        <v>0.53268800000000005</v>
+        <v>0.39538899999999999</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>26</v>
       </c>
       <c r="D91">
-        <v>0.585198</v>
+        <v>0.46026</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>27</v>
       </c>
       <c r="D92">
-        <v>1.0448930000000001</v>
+        <v>0.85956299999999997</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="D93">
-        <v>1.7231749999999999</v>
+        <v>1.2498370000000001</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="D94">
-        <v>2.0179830000000001</v>
+        <v>1.458474</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="D95">
-        <v>2.0278740000000002</v>
+        <v>1.4716370000000001</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>27</v>
       </c>
       <c r="D96">
-        <v>1.61951</v>
+        <v>1.2376769999999999</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>28</v>
       </c>
       <c r="D97">
-        <v>2.1202679999999998</v>
+        <v>1.633737</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>24</v>
       </c>
       <c r="D98">
-        <v>0.89119499999999996</v>
+        <v>0.70780399999999999</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>25</v>
       </c>
       <c r="D99">
-        <v>0.38259100000000001</v>
+        <v>0.31542300000000001</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>26</v>
       </c>
       <c r="D100">
-        <v>0.50990100000000005</v>
+        <v>0.40118100000000001</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="D101">
-        <v>0.359371</v>
+        <v>0.29546099999999997</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>28</v>
       </c>
       <c r="D102">
-        <v>0.36896899999999999</v>
+        <v>0.307948</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>29</v>
       </c>
       <c r="D103">
-        <v>2.5846680000000002</v>
+        <v>1.9604680000000001</v>
       </c>
       <c r="E103">
         <v>0</v>

--- a/FSDAtestHPC/test-results/regression_test.xlsx
+++ b/FSDAtestHPC/test-results/regression_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="97">
   <si>
     <t>FileName</t>
   </si>
@@ -401,6 +401,540 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>XX=load('wool.txt');
+y=log(XX(:,end));
+X=XX(:,1:end-2);
+w=XX(:,end-1);
+[out]=addt(y,X,w);
+% out.Tadd (equal to -8.9707) is exactly equal to stats.tstat.t(4)
+% obtained as
+whichstats = {'tstat','mse'};
+stats = regstats(y,XX(:,1:end-1),'linear',whichstats);
+% Similarly out.S2add (equal to 0.0345) is exactly equal to stats.mse (estimate of
+% \sigma^2 for augmented model)</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=FSR(ycont,X,'plots',2);</t>
+  </si>
+  <si>
+    <t>load hprice.txt;
+% setup parameters
+n=size(hprice,1);
+y=hprice(:,1);
+X=hprice(:,2:5);
+n0=5;
+% set \beta components
+beta0=0*ones(5,1);
+beta0(2,1)=10;
+beta0(3,1)=5000;
+beta0(4,1)=10000;
+beta0(5,1)=10000;
+% $\tau$
+s02=1/4.0e-8;
+tau0=1/s02;
+% R prior settings
+R=2.4*eye(5);
+R(2,2)=6e-7;
+R(3,3)=.15;
+R(4,4)=.6;
+R(5,5)=.6;
+R=inv(R);
+Unchk=FSRBbsb(y,X,beta0, R, tau0, n0);</t>
+  </si>
+  <si>
+    <t>load('fishery');
+y=fishery.data(:,1);
+X=fishery.data(:,2);
+[out]=LXS(y,X,'nsamp',10000);
+Un = FSRbsb(y,X,out.bs);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=LXS(y,X,'nsamp',1000);
+out=FSReda(y,X,out.bs);</t>
+  </si>
+  <si>
+    <t>% MDinv is a matrix which in the second column contains
+% all values equal to 0.99
+p=5;
+MDRenv=FSRenvmdr(1000,p,'prob',0.99);
+MDRinv=FSRinvmdr(MDRenv,p);</t>
+  </si>
+  <si>
+    <t>% Monitor minimum deletion residual in each step of the forward search.
+% Common part to all examples: load fishery dataset.
+load('fishery');
+y=fishery.data(:,2);
+X=fishery.data(:,1);
+% Find starting subset
+[out]=LXS(y,X,'nsamp',10000);
+[mdr] = FSRmdr(y,X,out.bs);
+plot(mdr(:,1),mdr(:,2))
+title('Monitoring of minimum deletion residual')</t>
+  </si>
+  <si>
+    <t>n=200; p=1;
+X = rand(n,p);
+y = X + 0.01*randn(n,1);
+% contaminated data points
+ycont = y;
+ycont(1:8) = ycont(1:8)+0.05;
+[out1 , xnew1 , ypred1, yci1] = ...
+FSRr(ycont,X,'plotsPI',1,'plots',1);
+disp(['Outliers without R2 adjustment = ' num2str(out1.outliers)]);
+disp(['Outliers with    R2 adjustment = ' num2str(out1.outliersr)]);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+y=randn(n,1);
+y(1:5)=y(1:5)+6;
+[out]=LXS(y,X);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=MMreg(ycont,X);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+state1=123456;
+randn('state', state1);
+X=randn(n,p);
+y=randn(n,1);
+kk=10;
+ycont = y;
+ycont(1:kk)=ycont(1:kk)+7;
+[outS]=Sreg(ycont,X);
+outMM=MMregcore(ycont,X,outS.beta,outS.scale)</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=MMregeda(ycont,X);</t>
+  </si>
+  <si>
+    <t>rng('default')
+rng(1000)
+n=1000;
+p=3;
+sig=0.01;
+eps=randn(n,1);
+X=randn(n,p);
+bet=3*ones(p,1);
+y=X*bet+sig*eps;
+[out] = mpdpR(y, X, 0.01);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+state1=123456;
+randn('state', state1);
+X=randn(n,p);
+y=randn(n,1);
+kk=10;
+ycont = y;
+ycont(1:kk)=ycont(1:kk)+7;
+[outS]=Sreg(ycont,X);
+rhofunc='optimal';
+bdp=0.5;
+out=RobCov(X,outS.residuals,outS.scale);
+disp('Compare 5 estimates of cov(\hat beta)')
+disp(out.covrob)
+disp('--------')
+disp(out.covrob1)
+disp('--------')
+disp(out.covrob2)
+disp('--------')
+disp(out.covrob3)
+disp('--------')
+disp(out.covrob4)</t>
+  </si>
+  <si>
+    <t>n=232;
+p=10;
+bdp='';
+robest='MM';
+eff=0.87;
+rhofunc='TB';
+sizesim=1;
+thresh=RobRegrSize(n,p,robest,rhofunc,bdp,eff,sizesim);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Sreg(ycont,X);
+laby='Scaled S residuals'; 
+titl='';
+resindexplot(out.residuals,'title',titl,'laby',laby,'numlab','')</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Sregeda(ycont,X,'msg',0);
+resfwdplot(out)
+ylabel('Scaled S residuals');</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Taureg(ycont,X);</t>
+  </si>
+  <si>
+    <t>% The Relationship Between Transformation and Weighting
+% in Regression, With Application to Biological and Physical Science,
+% Institute of Statistics mimeo series Report 1947, North Carolina State University. 
+% File is downloadable from
+% https://pdfs.semanticscholar.org/7067/fd66fe06f114cac58eef8253eb7483edfd29.pdf
+% The material assayed was obtained from two sources, with every other
+% concentration starting with 0.476 from the first source and the remainder from the
+% second. Replicate observations were obtained by subsampling at each concentration.
+x=[0.476	0.924	1.905	3.696	7.619	14.874	30.474	59.134];
+yy=[0.05706	0.11781	0.25071	0.49596	1.03928	2.14635	4.24397	8.53848...
+0.057	0.11615	0.25398	0.4807	1.03659	2.09495		    8.41333...
+0.06363	0.12587	0.24552	0.49442	1.12641	2.24941	4.7011	9.01437...
+0.05566	0.12308	0.24889	0.52321	1.10456	2.19937	4.44709	8.73544...
+0.05449	0.11629	0.24858	0.49931	1.03184	2.16042	4.42707	8.33862...
+0.06153	0.11878	0.24657	0.5021	1.02598	2.09198	4.39725	8.33347...
+0.05837	0.11869	0.24212	0.4886	0.98267	2.07686	4.35511	8.35725...
+0.05388	0.11886	0.25975	0.48158	1.04321	2.06961	4.37357	8.39123...
+0.05618	0.12492	0.25311	0.4827	1.03838	2.12548	4.3204	8.3901];
+X=[x';x([1:6 8])'; repmat(x(:),7,1)];
+y=yy';
+% The plot of the data shows: a systematic increase in variance with level
+% of mean response, small variability relative to the range of the means,
+% and reasonably straight-line relationship.
+plot(X,y,'o')
+xlabel('Concentration')
+ylabel('y')
+% In this case both lambda and the beta coefficients are estimated
+% A linear link between X and beta is assumed
+out=tBothSides(y, X);
+disp(out.Btable)</t>
+  </si>
+  <si>
+    <t>XX=load('wool.txt');
+y=log(XX(:,end));
+X=XX(:,1:end-2);
+w=XX(:,end-1);
+[out]=addt(y,X,w);
+% out.Tadd (equal to -8.9707) is exactly equal to stats.tstat.t(4)
+% obtained as
+whichstats = {'tstat','mse'};
+stats = regstats(y,XX(:,1:end-1),'linear',whichstats);
+% Similarly out.S2add (equal to 0.0345) is exactly equal to stats.mse (estimate of
+% \sigma^2 for augmented model)</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=FSR(ycont,X,'plots',2);</t>
+  </si>
+  <si>
+    <t>load hprice.txt;
+% setup parameters
+n=size(hprice,1);
+y=hprice(:,1);
+X=hprice(:,2:5);
+n0=5;
+% set \beta components
+beta0=0*ones(5,1);
+beta0(2,1)=10;
+beta0(3,1)=5000;
+beta0(4,1)=10000;
+beta0(5,1)=10000;
+% $\tau$
+s02=1/4.0e-8;
+tau0=1/s02;
+% R prior settings
+R=2.4*eye(5);
+R(2,2)=6e-7;
+R(3,3)=.15;
+R(4,4)=.6;
+R(5,5)=.6;
+R=inv(R);
+Unchk=FSRBbsb(y,X,beta0, R, tau0, n0);</t>
+  </si>
+  <si>
+    <t>load('fishery');
+y=fishery.data(:,1);
+X=fishery.data(:,2);
+[out]=LXS(y,X,'nsamp',10000);
+Un = FSRbsb(y,X,out.bs);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=LXS(y,X,'nsamp',1000);
+out=FSReda(y,X,out.bs);</t>
+  </si>
+  <si>
+    <t>% MDinv is a matrix which in the second column contains
+% all values equal to 0.99
+p=5;
+MDRenv=FSRenvmdr(1000,p,'prob',0.99);
+MDRinv=FSRinvmdr(MDRenv,p);</t>
+  </si>
+  <si>
+    <t>% Monitor minimum deletion residual in each step of the forward search.
+% Common part to all examples: load fishery dataset.
+load('fishery');
+y=fishery.data(:,2);
+X=fishery.data(:,1);
+% Find starting subset
+[out]=LXS(y,X,'nsamp',10000);
+[mdr] = FSRmdr(y,X,out.bs);
+plot(mdr(:,1),mdr(:,2))
+title('Monitoring of minimum deletion residual')</t>
+  </si>
+  <si>
+    <t>n=200; p=1;
+X = rand(n,p);
+y = X + 0.01*randn(n,1);
+% contaminated data points
+ycont = y;
+ycont(1:8) = ycont(1:8)+0.05;
+[out1 , xnew1 , ypred1, yci1] = ...
+FSRr(ycont,X,'plotsPI',1,'plots',1);
+disp(['Outliers without R2 adjustment = ' num2str(out1.outliers)]);
+disp(['Outliers with    R2 adjustment = ' num2str(out1.outliersr)]);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+y=randn(n,1);
+y(1:5)=y(1:5)+6;
+[out]=LXS(y,X);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=MMreg(ycont,X);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+state1=123456;
+randn('state', state1);
+X=randn(n,p);
+y=randn(n,1);
+kk=10;
+ycont = y;
+ycont(1:kk)=ycont(1:kk)+7;
+[outS]=Sreg(ycont,X);
+outMM=MMregcore(ycont,X,outS.beta,outS.scale)</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=MMregeda(ycont,X);</t>
+  </si>
+  <si>
+    <t>rng('default')
+rng(1000)
+n=1000;
+p=3;
+sig=0.01;
+eps=randn(n,1);
+X=randn(n,p);
+bet=3*ones(p,1);
+y=X*bet+sig*eps;
+[out] = mpdpR(y, X, 0.01);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+state1=123456;
+randn('state', state1);
+X=randn(n,p);
+y=randn(n,1);
+kk=10;
+ycont = y;
+ycont(1:kk)=ycont(1:kk)+7;
+[outS]=Sreg(ycont,X);
+rhofunc='optimal';
+bdp=0.5;
+out=RobCov(X,outS.residuals,outS.scale);
+disp('Compare 5 estimates of cov(\hat beta)')
+disp(out.covrob)
+disp('--------')
+disp(out.covrob1)
+disp('--------')
+disp(out.covrob2)
+disp('--------')
+disp(out.covrob3)
+disp('--------')
+disp(out.covrob4)</t>
+  </si>
+  <si>
+    <t>n=232;
+p=10;
+bdp='';
+robest='MM';
+eff=0.87;
+rhofunc='TB';
+sizesim=1;
+thresh=RobRegrSize(n,p,robest,rhofunc,bdp,eff,sizesim);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Sreg(ycont,X);
+laby='Scaled S residuals'; 
+titl='';
+resindexplot(out.residuals,'title',titl,'laby',laby,'numlab','')</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Sregeda(ycont,X,'msg',0);
+resfwdplot(out)
+ylabel('Scaled S residuals');</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+ycont=y;
+ycont(1:5)=ycont(1:5)+6;
+[out]=Taureg(ycont,X);</t>
+  </si>
+  <si>
+    <t>% The Relationship Between Transformation and Weighting
+% in Regression, With Application to Biological and Physical Science,
+% Institute of Statistics mimeo series Report 1947, North Carolina State University. 
+% File is downloadable from
+% https://pdfs.semanticscholar.org/7067/fd66fe06f114cac58eef8253eb7483edfd29.pdf
+% The material assayed was obtained from two sources, with every other
+% concentration starting with 0.476 from the first source and the remainder from the
+% second. Replicate observations were obtained by subsampling at each concentration.
+x=[0.476	0.924	1.905	3.696	7.619	14.874	30.474	59.134];
+yy=[0.05706	0.11781	0.25071	0.49596	1.03928	2.14635	4.24397	8.53848...
+0.057	0.11615	0.25398	0.4807	1.03659	2.09495		    8.41333...
+0.06363	0.12587	0.24552	0.49442	1.12641	2.24941	4.7011	9.01437...
+0.05566	0.12308	0.24889	0.52321	1.10456	2.19937	4.44709	8.73544...
+0.05449	0.11629	0.24858	0.49931	1.03184	2.16042	4.42707	8.33862...
+0.06153	0.11878	0.24657	0.5021	1.02598	2.09198	4.39725	8.33347...
+0.05837	0.11869	0.24212	0.4886	0.98267	2.07686	4.35511	8.35725...
+0.05388	0.11886	0.25975	0.48158	1.04321	2.06961	4.37357	8.39123...
+0.05618	0.12492	0.25311	0.4827	1.03838	2.12548	4.3204	8.3901];
+X=[x';x([1:6 8])'; repmat(x(:),7,1)];
+y=yy';
+% The plot of the data shows: a systematic increase in variance with level
+% of mean response, small variability relative to the range of the means,
+% and reasonably straight-line relationship.
+plot(X,y,'o')
+xlabel('Concentration')
+ylabel('y')
+% In this case both lambda and the beta coefficients are estimated
+% A linear link between X and beta is assumed
+out=tBothSides(y, X);
+disp(out.Btable)</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +954,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -430,14 +964,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,2066 +1002,2066 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D2">
-        <v>16.515993999999999</v>
+        <v>32.266480999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
+      <c r="F2" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D3">
-        <v>4.7840559999999996</v>
+        <v>6.9749679999999996</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.20977</v>
+        <v>1.355362</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D5">
-        <v>5.5301809999999998</v>
+        <v>6.2727089999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2.820519</v>
+        <v>3.078236</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
+      <c r="F6" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D7">
-        <v>0.41667799999999999</v>
+        <v>0.439774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D8">
-        <v>1.555901</v>
+        <v>1.6319220000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
+      <c r="F8" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D9">
-        <v>2.9160680000000001</v>
+        <v>3.449319</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D10">
-        <v>1.320055</v>
+        <v>1.3466229999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
+      <c r="F10" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D11">
-        <v>3.0777589999999999</v>
+        <v>3.4042849999999998</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
+      <c r="F11" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D12">
-        <v>1.313674</v>
+        <v>1.5455540000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D13">
-        <v>1.5134110000000001</v>
+        <v>1.7791589999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D14">
-        <v>2.3090229999999998</v>
+        <v>2.6613669999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>0.71112699999999995</v>
+        <v>0.81583899999999998</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
+      <c r="F15" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D16">
-        <v>1.4223079999999999</v>
+        <v>1.6032869999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
+      <c r="F16" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17">
-        <v>0.98956900000000003</v>
+        <v>1.019819</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
+      <c r="F17" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>0.95872599999999997</v>
+        <v>1.0757939999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>1.293633</v>
+        <v>1.4958260000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
+      <c r="F19" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>0.68235100000000004</v>
+        <v>0.76031499999999996</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
+      <c r="F20" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>0.76696699999999995</v>
+        <v>0.84394499999999995</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D22">
-        <v>0.59787599999999996</v>
+        <v>0.638984</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
+      <c r="F22" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D23">
-        <v>0.80245200000000005</v>
+        <v>0.88226700000000002</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>41</v>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D24">
-        <v>0.51378500000000005</v>
+        <v>0.53880399999999995</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D25">
-        <v>0.39348</v>
+        <v>0.40849099999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>42</v>
+      <c r="F25" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D26">
-        <v>1.631929</v>
+        <v>1.8360920000000001</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
+      <c r="F26" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D27">
-        <v>1.231687</v>
+        <v>1.317264</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>42</v>
+      <c r="F27" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D28">
-        <v>4.609445</v>
+        <v>5.1789490000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>42</v>
+      <c r="F28" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D29">
-        <v>0.56289500000000003</v>
+        <v>0.61005200000000004</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D30">
-        <v>0.34779900000000002</v>
+        <v>0.38188800000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D31">
-        <v>87.986953</v>
+        <v>97.851078000000001</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.33019199999999999</v>
+        <v>0.37413299999999999</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>44</v>
+      <c r="F32" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D33">
-        <v>2.6820970000000002</v>
+        <v>3.0133220000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>44</v>
+      <c r="F33" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D34">
-        <v>2.925764</v>
+        <v>3.4072719999999999</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>44</v>
+      <c r="F34" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D35">
-        <v>2.8190490000000001</v>
+        <v>2.8763179999999999</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>44</v>
+      <c r="F35" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D36">
-        <v>1.006421</v>
+        <v>1.1340110000000001</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>45</v>
+      <c r="F36" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D37">
-        <v>0.88869100000000001</v>
+        <v>0.97528700000000002</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>45</v>
+      <c r="F37" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D38">
-        <v>0.96915899999999999</v>
+        <v>1.0646899999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
+      <c r="F38" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D39">
-        <v>0.98880599999999996</v>
+        <v>1.087105</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>45</v>
+      <c r="F39" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D40">
-        <v>1.013916</v>
+        <v>1.1150580000000001</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>45</v>
+      <c r="F40" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D41">
-        <v>1.08022</v>
+        <v>1.2095089999999999</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>45</v>
+      <c r="F41" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D42">
-        <v>0.98875999999999997</v>
+        <v>1.0837209999999999</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>45</v>
+      <c r="F42" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D43">
-        <v>1.01776</v>
+        <v>1.167548</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>45</v>
+      <c r="F43" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D44">
-        <v>1.587388</v>
+        <v>1.825545</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>45</v>
+      <c r="F44" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D45">
-        <v>1.2052959999999999</v>
+        <v>1.3229139999999999</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>45</v>
+      <c r="F45" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D46">
-        <v>0.461314</v>
+        <v>0.53031399999999995</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>45</v>
+      <c r="F46" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D47">
-        <v>1.3171200000000001</v>
+        <v>1.3859429999999999</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>46</v>
+      <c r="F47" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D48">
-        <v>0.76331800000000005</v>
+        <v>0.83961200000000002</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>46</v>
+      <c r="F48" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D49">
-        <v>4.501525</v>
+        <v>4.7640260000000003</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>46</v>
+      <c r="F49" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D50">
-        <v>7.4574740000000004</v>
+        <v>7.7424030000000004</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>46</v>
+      <c r="F50" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D51">
-        <v>1.5116419999999999</v>
+        <v>1.594563</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>47</v>
+      <c r="F51" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D52">
-        <v>1.15913</v>
+        <v>1.3015000000000001</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>47</v>
+      <c r="F52" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D53">
-        <v>0.62134299999999998</v>
+        <v>0.652339</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>47</v>
+      <c r="F53" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D54">
-        <v>0.77056800000000003</v>
+        <v>0.82408400000000004</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>47</v>
+      <c r="F54" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D55">
-        <v>1.1807890000000001</v>
+        <v>1.350368</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>47</v>
+      <c r="F55" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D56">
-        <v>0.36335800000000001</v>
+        <v>0.39073799999999997</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>47</v>
+      <c r="F56" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D57">
-        <v>0.79494799999999999</v>
+        <v>0.86443300000000001</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>47</v>
+      <c r="F57" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D58">
-        <v>2.7976100000000002</v>
+        <v>2.8935019999999998</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>47</v>
+      <c r="F58" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D59">
-        <v>0.93005599999999999</v>
+        <v>0.86535099999999998</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>47</v>
+      <c r="F59" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D60">
-        <v>0.52631799999999995</v>
+        <v>0.54314899999999999</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>48</v>
+      <c r="F60" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D61">
-        <v>0.50559699999999996</v>
+        <v>0.58234600000000003</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>48</v>
+      <c r="F61" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D62">
-        <v>0.26566800000000002</v>
+        <v>0.28476899999999999</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>48</v>
+      <c r="F62" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D63">
-        <v>0.68706299999999998</v>
+        <v>0.703071</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>48</v>
+      <c r="F63" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D64">
-        <v>8.5267739999999996</v>
+        <v>9.9107459999999996</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>48</v>
+      <c r="F64" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D65">
-        <v>0.445932</v>
+        <v>0.48734</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>49</v>
+      <c r="F65" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D66">
-        <v>0.74030200000000002</v>
+        <v>0.842445</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>49</v>
+      <c r="F66" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D67">
-        <v>0.69854899999999998</v>
+        <v>0.76432100000000003</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>49</v>
+      <c r="F67" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D68">
-        <v>8.5667019999999994</v>
+        <v>9.8500370000000004</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>49</v>
+      <c r="F68" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D69">
-        <v>0.18506800000000001</v>
+        <v>0.209257</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>50</v>
+      <c r="F69" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D70">
-        <v>0.49832300000000002</v>
+        <v>0.53514799999999996</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>50</v>
+      <c r="F70" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D71">
-        <v>0.38313900000000001</v>
+        <v>0.42481099999999999</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>50</v>
+      <c r="F71" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D72">
-        <v>0.40768799999999999</v>
+        <v>0.52457399999999998</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>51</v>
+      <c r="F72" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D73">
-        <v>0.51661800000000002</v>
+        <v>0.61095699999999997</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>51</v>
+      <c r="F73" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D74">
-        <v>1.3558300000000001</v>
+        <v>1.642604</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>51</v>
+      <c r="F74" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D75">
-        <v>1.788273</v>
+        <v>1.995565</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>51</v>
+      <c r="F75" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D76">
-        <v>1.8511789999999999</v>
+        <v>1.968453</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>51</v>
+      <c r="F76" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D77">
-        <v>1.5028330000000001</v>
+        <v>1.6175090000000001</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>51</v>
+      <c r="F77" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D78">
-        <v>1.0584420000000001</v>
+        <v>1.2762260000000001</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>51</v>
+      <c r="F78" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D79">
-        <v>0.45245800000000003</v>
+        <v>0.49058200000000002</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>52</v>
+      <c r="F79" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D80">
-        <v>0.31147900000000001</v>
+        <v>0.31520700000000001</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>52</v>
+      <c r="F80" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D81">
-        <v>0.59196400000000005</v>
+        <v>0.66320199999999996</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>52</v>
+      <c r="F81" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D82">
-        <v>0.27181699999999998</v>
+        <v>0.285887</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>53</v>
+      <c r="F82" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D83">
-        <v>0.25759700000000002</v>
+        <v>0.27714</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>53</v>
+      <c r="F83" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D84">
-        <v>0.27314899999999998</v>
+        <v>0.28133599999999997</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>53</v>
+      <c r="F84" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D85">
-        <v>0.27218799999999999</v>
+        <v>0.27759</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>53</v>
+      <c r="F85" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D86">
-        <v>0.65476500000000004</v>
+        <v>0.72611300000000001</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>54</v>
+      <c r="F86" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D87">
-        <v>0.48302400000000001</v>
+        <v>0.54005099999999995</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>54</v>
+      <c r="F87" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D88">
-        <v>0.49018</v>
+        <v>0.55059100000000005</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>54</v>
+      <c r="F88" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D89">
-        <v>0.87051500000000004</v>
+        <v>1.024321</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>55</v>
+      <c r="F89" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D90">
-        <v>0.39538899999999999</v>
+        <v>0.44469900000000001</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>55</v>
+      <c r="F90" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <v>0.46026</v>
+        <v>0.49888100000000002</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>55</v>
+      <c r="F91" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D92">
-        <v>0.85956299999999997</v>
+        <v>0.85257000000000005</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>55</v>
+      <c r="F92" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D93">
-        <v>1.2498370000000001</v>
+        <v>1.386004</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>56</v>
+      <c r="F93" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D94">
-        <v>1.458474</v>
+        <v>1.658199</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>56</v>
+      <c r="F94" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D95">
-        <v>1.4716370000000001</v>
+        <v>1.6364240000000001</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>56</v>
+      <c r="F95" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D96">
-        <v>1.2376769999999999</v>
+        <v>1.3492139999999999</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>56</v>
+      <c r="F96" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D97">
-        <v>1.633737</v>
+        <v>1.848976</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>56</v>
+      <c r="F97" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D98">
-        <v>0.70780399999999999</v>
+        <v>0.79186999999999996</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>57</v>
+      <c r="F98" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D99">
-        <v>0.31542300000000001</v>
+        <v>0.31772400000000001</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>57</v>
+      <c r="F99" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D100">
-        <v>0.40118100000000001</v>
+        <v>0.43721399999999999</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>57</v>
+      <c r="F100" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D101">
-        <v>0.29546099999999997</v>
+        <v>0.294041</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>57</v>
+      <c r="F101" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D102">
-        <v>0.307948</v>
+        <v>0.30862800000000001</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>57</v>
+      <c r="F102" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D103">
-        <v>1.9604680000000001</v>
+        <v>2.0598169999999998</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>57</v>
+      <c r="F103" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
